--- a/TeamData/Overflow(Lirten)BackLog.xlsx
+++ b/TeamData/Overflow(Lirten)BackLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="142">
   <si>
     <t xml:space="preserve">Team name</t>
   </si>
@@ -407,19 +407,19 @@
     <t xml:space="preserve">acceptedMember</t>
   </si>
   <si>
+    <t xml:space="preserve">Job Applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partner[Entity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vacancy[Entity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member[Entity]</t>
+  </si>
+  <si>
     <t xml:space="preserve">datePosted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Applications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partner[Entity]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vacancy[Entity]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member[Entity]</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
@@ -856,10 +856,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -868,15 +864,15 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="7:7 B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="120.724696356275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="121.902834008097"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="77.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="77.9838056680162"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1456,7 +1452,6 @@
 Scrum email:</oddHeader>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1467,18 +1462,18 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="7:7 D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.6315789473684"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.165991902834"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1801,28 +1796,28 @@
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="36.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1838,25 +1833,25 @@
       <c r="A3" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="25" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1864,34 +1859,34 @@
       <c r="A4" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="25" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1899,25 +1894,25 @@
       <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="25" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1937,128 +1932,147 @@
       <c r="E6" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>127</v>
-      </c>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="25" t="s">
         <v>132</v>
       </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>127</v>
-      </c>
+      <c r="E9" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="G10" s="26"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="E11" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>141</v>
       </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:L75">

--- a/TeamData/Overflow(Lirten)BackLog.xlsx
+++ b/TeamData/Overflow(Lirten)BackLog.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\overflow\TeamData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Repos\overflow\TeamData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66200B6-B528-49AD-9B2F-8F5BC3253858}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
     <sheet name="Models" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -465,7 +464,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -646,9 +645,6 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,6 +709,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1108,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1117,573 +1116,573 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="2"/>
+    <col min="1" max="1" width="14.5546875" style="1"/>
     <col min="2" max="2" width="121.88671875"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="4" width="78" style="3"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="78" style="2"/>
     <col min="5" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <f t="shared" ref="A8:A16" si="0">A7+0.1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C8"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C9"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>1.3000000000000003</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C10"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C11"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>1.5000000000000004</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C12"/>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>1.6000000000000005</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C13"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>1.7000000000000006</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C14"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>1.8000000000000007</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C15"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>1.9000000000000008</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C16"/>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C17"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18"/>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C19"/>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>2</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <f t="shared" ref="A21:A29" si="1">A20+0.1</f>
         <v>2.1</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C21"/>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C22"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <f t="shared" si="1"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C23"/>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <f t="shared" si="1"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C24"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <f t="shared" si="1"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C25"/>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <f t="shared" si="1"/>
         <v>2.6000000000000005</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26"/>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <f t="shared" si="1"/>
         <v>2.7000000000000006</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C27"/>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <f t="shared" si="1"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C28"/>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <f t="shared" si="1"/>
         <v>2.9000000000000008</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C29"/>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <f t="shared" ref="A31:A39" si="2">A30+0.1</f>
         <v>3.1</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C31"/>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C32"/>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <f t="shared" si="2"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C33"/>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <f t="shared" si="2"/>
         <v>3.4000000000000004</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C34"/>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <f t="shared" si="2"/>
         <v>3.5000000000000004</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C35"/>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <f t="shared" si="2"/>
         <v>3.6000000000000005</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C36"/>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <f t="shared" si="2"/>
         <v>3.7000000000000006</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37"/>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <f t="shared" si="2"/>
         <v>3.8000000000000007</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C38"/>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <f t="shared" si="2"/>
         <v>3.9000000000000008</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C39"/>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="17">
         <v>3.1</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C40"/>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+      <c r="A41" s="17">
         <v>3.11</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C41"/>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="A42" s="17">
         <v>3.12</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C42"/>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="A43" s="17">
         <v>3.13</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43"/>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
+      <c r="A44" s="17">
         <v>3.14</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C44"/>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1702,16 +1701,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" activeCellId="1" sqref="A7:XFD7 D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="3"/>
+    <col min="1" max="1" width="10.33203125" style="2"/>
     <col min="2" max="2" width="58.109375"/>
     <col min="3" max="3" width="14"/>
     <col min="4" max="4" width="14.77734375"/>
@@ -1721,30 +1720,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1754,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -1764,7 +1763,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <f t="shared" ref="A3:A14" si="0">A2+1</f>
         <v>2</v>
       </c>
@@ -1775,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -1785,7 +1784,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1796,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -1806,7 +1805,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1827,7 +1826,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1848,7 +1847,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1869,7 +1868,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
@@ -1890,7 +1889,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1911,7 +1910,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1922,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
         <v>69</v>
@@ -1932,7 +1931,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1953,7 +1952,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1974,7 +1973,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1995,7 +1994,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
         <v>69</v>
@@ -2028,16 +2027,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="23"/>
+    <col min="1" max="1" width="14.44140625" style="22"/>
     <col min="2" max="2" width="30"/>
     <col min="3" max="3" width="20.33203125"/>
     <col min="4" max="4" width="14.6640625"/>
@@ -2057,257 +2056,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="24"/>
+      <c r="A1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="24" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="25"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:L75">

--- a/TeamData/Overflow(Lirten)BackLog.xlsx
+++ b/TeamData/Overflow(Lirten)BackLog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Repos\overflow\TeamData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -248,9 +248,6 @@
     <t>As an admin, I am able to CRUD partners</t>
   </si>
   <si>
-    <t>Farah Hazem</t>
-  </si>
-  <si>
     <t>As an admin, I am able to CRUD life coaches</t>
   </si>
   <si>
@@ -459,6 +456,9 @@
   </si>
   <si>
     <t>confirmed</t>
+  </si>
+  <si>
+    <t>Farah hazem</t>
   </si>
 </sst>
 </file>
@@ -1705,7 +1705,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -1774,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -1789,13 +1789,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -1810,13 +1810,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -1831,13 +1831,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
@@ -1852,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1873,13 +1873,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
@@ -1894,7 +1894,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1915,13 +1915,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
         <v>69</v>
@@ -1936,7 +1936,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1957,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1978,13 +1978,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
         <v>69</v>
@@ -1999,13 +1999,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
         <v>69</v>
@@ -2060,179 +2060,179 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="H3" s="24" t="s">
         <v>98</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="H4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="I4" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="24" t="s">
+      <c r="G5" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>110</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="H6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="I6" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="C7" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="E7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="F7" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="G7" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="H7" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="I7" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="J7" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="K7" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>126</v>
       </c>
       <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="E8" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="F8" s="24" t="s">
         <v>131</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>132</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -2242,19 +2242,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>135</v>
-      </c>
       <c r="E9" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -2264,16 +2264,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="24"/>
@@ -2284,22 +2284,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="C11" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>141</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>

--- a/TeamData/Overflow(Lirten)BackLog.xlsx
+++ b/TeamData/Overflow(Lirten)BackLog.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\overflow\TeamData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66200B6-B528-49AD-9B2F-8F5BC3253858}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
     <sheet name="Models" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -249,9 +248,6 @@
     <t>As an admin, I am able to CRUD partners</t>
   </si>
   <si>
-    <t>Farah Hazem</t>
-  </si>
-  <si>
     <t>As an admin, I am able to CRUD life coaches</t>
   </si>
   <si>
@@ -460,12 +456,15 @@
   </si>
   <si>
     <t>confirmed</t>
+  </si>
+  <si>
+    <t>Farah hazem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -646,9 +645,6 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,6 +709,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1108,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1117,573 +1116,573 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="2"/>
+    <col min="1" max="1" width="14.5546875" style="1"/>
     <col min="2" max="2" width="121.88671875"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="4" width="78" style="3"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="78" style="2"/>
     <col min="5" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <f t="shared" ref="A8:A16" si="0">A7+0.1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C8"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C9"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>1.3000000000000003</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C10"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C11"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>1.5000000000000004</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C12"/>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>1.6000000000000005</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C13"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>1.7000000000000006</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C14"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>1.8000000000000007</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C15"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>1.9000000000000008</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C16"/>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C17"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18"/>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C19"/>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>2</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <f t="shared" ref="A21:A29" si="1">A20+0.1</f>
         <v>2.1</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C21"/>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C22"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <f t="shared" si="1"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C23"/>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <f t="shared" si="1"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C24"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <f t="shared" si="1"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C25"/>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <f t="shared" si="1"/>
         <v>2.6000000000000005</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26"/>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <f t="shared" si="1"/>
         <v>2.7000000000000006</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C27"/>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <f t="shared" si="1"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C28"/>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <f t="shared" si="1"/>
         <v>2.9000000000000008</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C29"/>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <f t="shared" ref="A31:A39" si="2">A30+0.1</f>
         <v>3.1</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C31"/>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C32"/>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <f t="shared" si="2"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C33"/>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <f t="shared" si="2"/>
         <v>3.4000000000000004</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C34"/>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <f t="shared" si="2"/>
         <v>3.5000000000000004</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C35"/>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <f t="shared" si="2"/>
         <v>3.6000000000000005</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C36"/>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <f t="shared" si="2"/>
         <v>3.7000000000000006</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37"/>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <f t="shared" si="2"/>
         <v>3.8000000000000007</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C38"/>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <f t="shared" si="2"/>
         <v>3.9000000000000008</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C39"/>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="17">
         <v>3.1</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C40"/>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+      <c r="A41" s="17">
         <v>3.11</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C41"/>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="A42" s="17">
         <v>3.12</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C42"/>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="A43" s="17">
         <v>3.13</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43"/>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
+      <c r="A44" s="17">
         <v>3.14</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C44"/>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1702,16 +1701,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" activeCellId="1" sqref="A7:XFD7 D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="3"/>
+    <col min="1" max="1" width="10.33203125" style="2"/>
     <col min="2" max="2" width="58.109375"/>
     <col min="3" max="3" width="14"/>
     <col min="4" max="4" width="14.77734375"/>
@@ -1721,30 +1720,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1764,7 +1763,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <f t="shared" ref="A3:A14" si="0">A2+1</f>
         <v>2</v>
       </c>
@@ -1775,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -1785,18 +1784,18 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -1806,18 +1805,18 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -1827,18 +1826,18 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
@@ -1848,12 +1847,12 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1865,22 +1864,22 @@
         <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
@@ -1890,12 +1889,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1907,22 +1906,22 @@
         <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
         <v>69</v>
@@ -1932,12 +1931,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1949,16 +1948,16 @@
         <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1970,22 +1969,22 @@
         <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
         <v>69</v>
@@ -1995,18 +1994,18 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
         <v>69</v>
@@ -2028,16 +2027,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="23"/>
+    <col min="1" max="1" width="14.44140625" style="22"/>
     <col min="2" max="2" width="30"/>
     <col min="3" max="3" width="20.33203125"/>
     <col min="4" max="4" width="14.6640625"/>
@@ -2057,257 +2056,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="24"/>
+      <c r="A1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="B4" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="D4" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="D5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="G5" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="F6" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="25" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="B7" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="I7" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="J7" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="K7" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="B9" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="B10" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="B11" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="D11" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:L75">

--- a/TeamData/Overflow(Lirten)BackLog.xlsx
+++ b/TeamData/Overflow(Lirten)BackLog.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Repos\overflow\TeamData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
     <sheet name="Models" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="148">
   <si>
     <t>Team name</t>
   </si>
@@ -459,6 +460,24 @@
   </si>
   <si>
     <t>Farah hazem</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Story Points Remaining</t>
   </si>
 </sst>
 </file>
@@ -562,7 +581,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,6 +624,12 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -643,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -712,6 +737,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -809,6 +836,2023 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Velocity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Youssef Shafei</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Youssef Sherif</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ahmed Yasser</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Farah hazem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Philip Mouris</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Omar Nael</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Youssef Samy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Youssef Fathi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Abdellatif Emara</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="78632736"/>
+        <c:axId val="78634368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="78632736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Team Member</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78634368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78634368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78632736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Story Points Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="74270144"/>
+        <c:axId val="74263072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="74270144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74263072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="74263072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Story Points Remaining</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74270144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1704,8 +3748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1750,7 +3794,7 @@
         <v>67</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
@@ -1771,7 +3815,7 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
@@ -1792,7 +3836,7 @@
         <v>71</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
@@ -1813,10 +3857,10 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -1834,7 +3878,7 @@
         <v>75</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
@@ -1876,10 +3920,10 @@
         <v>79</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
@@ -1918,7 +3962,7 @@
         <v>82</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>83</v>
@@ -1981,7 +4025,7 @@
         <v>86</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>87</v>
@@ -2002,7 +4046,7 @@
         <v>88</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>89</v>
@@ -2017,7 +4061,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15">
         <f>SUM(C2:C14)</f>
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2316,4 +4360,244 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="A1:N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <f>(B2/A2)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">(B3/A3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f>SUM(B2:B10)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="28">
+        <f>AVERAGE(D2:D10)</f>
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/TeamData/Overflow(Lirten)BackLog.xlsx
+++ b/TeamData/Overflow(Lirten)BackLog.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Repos\overflow\TeamData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Repos\OverFlowEmara\overflow\TeamData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="993" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="993" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
     <sheet name="Models" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="report" sheetId="4" r:id="rId4"/>
+    <sheet name="Entity Chart" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="207">
   <si>
     <t>Team name</t>
   </si>
@@ -478,13 +479,190 @@
   </si>
   <si>
     <t>Story Points Remaining</t>
+  </si>
+  <si>
+    <t>Keys:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Super] </t>
+  </si>
+  <si>
+    <t>Entity can't exists without attribute</t>
+  </si>
+  <si>
+    <t>Embedded Entity Chart</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>lifeCoach</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>member [Super]</t>
+  </si>
+  <si>
+    <t>JobApplication</t>
+  </si>
+  <si>
+    <t>vacancy [Super]</t>
+  </si>
+  <si>
+    <t>member [super]</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>[slots]</t>
+  </si>
+  <si>
+    <t>[reviews]</t>
+  </si>
+  <si>
+    <t>[feedback]</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>partner [super]</t>
+  </si>
+  <si>
+    <t>Member update</t>
+  </si>
+  <si>
+    <t>2-update member in feedback</t>
+  </si>
+  <si>
+    <t>Member delete</t>
+  </si>
+  <si>
+    <t>1-update member in users</t>
+  </si>
+  <si>
+    <t>1-delete member in users</t>
+  </si>
+  <si>
+    <t>2-delete feedback which has this member</t>
+  </si>
+  <si>
+    <t>3-remove this feedback from partner</t>
+  </si>
+  <si>
+    <t>4-delete job application if it has this member</t>
+  </si>
+  <si>
+    <t>5-delete from vacancy if this member is accepted</t>
+  </si>
+  <si>
+    <t>3-update member in feedback array in partner</t>
+  </si>
+  <si>
+    <t>4-update member in jobApplication</t>
+  </si>
+  <si>
+    <t>5-update member in slots</t>
+  </si>
+  <si>
+    <t>6-update member in vacancy</t>
+  </si>
+  <si>
+    <t>7-update member in vacancy in jobApplication</t>
+  </si>
+  <si>
+    <t>Partner Update</t>
+  </si>
+  <si>
+    <t>1-update partner in users</t>
+  </si>
+  <si>
+    <t>2-update partner in reviews</t>
+  </si>
+  <si>
+    <t>3-update partner in vacancy</t>
+  </si>
+  <si>
+    <t>4-update partner in vacancy in jobApplication</t>
+  </si>
+  <si>
+    <t>Partner Delete</t>
+  </si>
+  <si>
+    <t>1-delete partner in users</t>
+  </si>
+  <si>
+    <t>2-delete vacancy which has this partner</t>
+  </si>
+  <si>
+    <t>4-delete Reviews which have this partner</t>
+  </si>
+  <si>
+    <t>3-delete jobApplications which have this vacancy</t>
+  </si>
+  <si>
+    <t>feedback delete</t>
+  </si>
+  <si>
+    <t>delete from partner array</t>
+  </si>
+  <si>
+    <t>slot update</t>
+  </si>
+  <si>
+    <t>1-update in lifeCoach array</t>
+  </si>
+  <si>
+    <t>slot delete</t>
+  </si>
+  <si>
+    <t>7-delete member from slots and set to free</t>
+  </si>
+  <si>
+    <t>8-uppdate member in slots in lifeCoach array</t>
+  </si>
+  <si>
+    <t>1-delete from lifeCoach array</t>
+  </si>
+  <si>
+    <t>review update</t>
+  </si>
+  <si>
+    <t>1-update in member array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review delete </t>
+  </si>
+  <si>
+    <t>1-delete from member array</t>
+  </si>
+  <si>
+    <t>Vacancy update</t>
+  </si>
+  <si>
+    <t>1-update in jobApplication</t>
+  </si>
+  <si>
+    <t>Vacancy delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-delete jobApplications which have this vacancy </t>
+  </si>
+  <si>
+    <t>8-update slot in lifeCoach array to be free (without member)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -580,8 +758,44 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,8 +844,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -663,12 +889,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -734,17 +1066,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -755,6 +1119,11 @@
       <font>
         <b val="0"/>
         <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -895,7 +1264,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>report!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -916,7 +1285,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>report!$C$2:$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -951,7 +1320,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>report!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -996,11 +1365,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="78632736"/>
-        <c:axId val="78634368"/>
+        <c:axId val="-1233905376"/>
+        <c:axId val="-1233904832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78632736"/>
+        <c:axId val="-1233905376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78634368"/>
+        <c:crossAx val="-1233904832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1113,7 +1482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78634368"/>
+        <c:axId val="-1233904832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,7 +1533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78632736"/>
+        <c:crossAx val="-1233905376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1304,7 +1673,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$14</c:f>
+              <c:f>report!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1339,7 +1708,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$15:$A$19</c:f>
+              <c:f>report!$A$15:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1363,7 +1732,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$B$19</c:f>
+              <c:f>report!$B$15:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1395,11 +1764,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74270144"/>
-        <c:axId val="74263072"/>
+        <c:axId val="-1233912448"/>
+        <c:axId val="-1233907008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74270144"/>
+        <c:axId val="-1233912448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,12 +1887,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74263072"/>
+        <c:crossAx val="-1233907008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74263072"/>
+        <c:axId val="-1233907008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +2011,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74270144"/>
+        <c:crossAx val="-1233912448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3174,7 +3543,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -3188,7 +3557,7 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
@@ -3200,7 +3569,7 @@
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
@@ -3212,7 +3581,7 @@
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3224,7 +3593,7 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
@@ -4354,8 +4723,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:L75">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="tity"/>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="rray"/>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="tity"/>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="rray"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -4366,7 +4735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N29" sqref="A1:N29"/>
     </sheetView>
   </sheetViews>
@@ -4532,20 +4901,20 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
+      <c r="B12" s="27"/>
       <c r="C12" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <f>AVERAGE(D2:D10)</f>
         <v>1.7777777777777777</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -4600,4 +4969,336 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="45"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="44"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="44"/>
+    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" style="44" customWidth="1"/>
+    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="44"/>
+    <col min="15" max="15" width="41.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="B1" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="31"/>
+      <c r="C3" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="32"/>
+      <c r="G3" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="I5" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="O5" s="42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="33"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="34"/>
+      <c r="G6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="O6" s="42"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="34"/>
+      <c r="G7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="O7" s="42"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="33"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="G8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="O8" s="43"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="M9" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="O11" s="48"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="O12" s="42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="M13" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="O13" s="50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="53"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="48"/>
+      <c r="C18" s="34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="34"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="34"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="36"/>
+    </row>
+    <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="39"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M1:BC2 A1:I2 A3:BC16 A17:A324 C17:BC324 B17:B325">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="[Super]">
+      <formula>NOT(ISERROR(SEARCH("[Super]",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TeamData/Overflow(Lirten)BackLog.xlsx
+++ b/TeamData/Overflow(Lirten)BackLog.xlsx
@@ -487,9 +487,6 @@
     <t xml:space="preserve">[Super] </t>
   </si>
   <si>
-    <t>Entity can't exists without attribute</t>
-  </si>
-  <si>
     <t>Embedded Entity Chart</t>
   </si>
   <si>
@@ -553,18 +550,12 @@
     <t>2-delete feedback which has this member</t>
   </si>
   <si>
-    <t>3-remove this feedback from partner</t>
-  </si>
-  <si>
     <t>4-delete job application if it has this member</t>
   </si>
   <si>
     <t>5-delete from vacancy if this member is accepted</t>
   </si>
   <si>
-    <t>3-update member in feedback array in partner</t>
-  </si>
-  <si>
     <t>4-update member in jobApplication</t>
   </si>
   <si>
@@ -610,9 +601,6 @@
     <t>feedback delete</t>
   </si>
   <si>
-    <t>delete from partner array</t>
-  </si>
-  <si>
     <t>slot update</t>
   </si>
   <si>
@@ -634,15 +622,9 @@
     <t>review update</t>
   </si>
   <si>
-    <t>1-update in member array</t>
-  </si>
-  <si>
     <t xml:space="preserve">review delete </t>
   </si>
   <si>
-    <t>1-delete from member array</t>
-  </si>
-  <si>
     <t>Vacancy update</t>
   </si>
   <si>
@@ -656,6 +638,24 @@
   </si>
   <si>
     <t>8-update slot in lifeCoach array to be free (without member)</t>
+  </si>
+  <si>
+    <t>Entity can't exist without attribute</t>
+  </si>
+  <si>
+    <t>3-update member in feedback array in partner then update partner &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>3-remove this feedback from partner then update partner in all entities</t>
+  </si>
+  <si>
+    <t>delete from partner array and update partner(all entities)</t>
+  </si>
+  <si>
+    <t>1-update in member array and update member(all entities)</t>
+  </si>
+  <si>
+    <t>1-delete from member array and update member(all entities)</t>
   </si>
 </sst>
 </file>
@@ -1068,9 +1068,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1098,12 +1095,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1119,11 +1119,6 @@
       <font>
         <b val="0"/>
         <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -1222,7 +1217,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1365,11 +1359,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1233905376"/>
-        <c:axId val="-1233904832"/>
+        <c:axId val="-1394899520"/>
+        <c:axId val="-1394901152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1233905376"/>
+        <c:axId val="-1394899520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1401,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1474,7 +1467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1233904832"/>
+        <c:crossAx val="-1394901152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1482,7 +1475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1233904832"/>
+        <c:axId val="-1394901152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,7 +1526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1233905376"/>
+        <c:crossAx val="-1394899520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1632,7 +1625,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1764,11 +1756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1233912448"/>
-        <c:axId val="-1233907008"/>
+        <c:axId val="-1394896800"/>
+        <c:axId val="-1394909856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1233912448"/>
+        <c:axId val="-1394896800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1812,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1887,12 +1878,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1233907008"/>
+        <c:crossAx val="-1394909856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1233907008"/>
+        <c:axId val="-1394909856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +1935,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2011,7 +2001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1233912448"/>
+        <c:crossAx val="-1394896800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3543,7 +3533,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -3557,7 +3547,7 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
@@ -3569,7 +3559,7 @@
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
@@ -3581,7 +3571,7 @@
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3593,7 +3583,7 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
@@ -4976,30 +4966,30 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="45"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="44"/>
+    <col min="6" max="6" width="8.88671875" style="44"/>
+    <col min="7" max="7" width="48.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="43"/>
     <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="44"/>
+    <col min="10" max="10" width="8.88671875" style="43"/>
     <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.21875" style="44" customWidth="1"/>
-    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="44"/>
+    <col min="12" max="12" width="7.21875" style="43" customWidth="1"/>
+    <col min="13" max="13" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="43"/>
     <col min="15" max="15" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="B1" s="30" t="s">
-        <v>151</v>
+      <c r="B1" s="29" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5010,287 +5000,287 @@
         <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="32"/>
-      <c r="G3" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="K3" s="41" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="31"/>
+      <c r="G3" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="O3" s="41" t="s">
+      <c r="O3" s="40" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>111</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="46" t="s">
+      <c r="G4" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="I5" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="M4" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="O4" s="42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G5" s="42"/>
-      <c r="I5" s="42" t="s">
+      <c r="K5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="O5" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="O5" s="42" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
-      <c r="E6" s="34"/>
-      <c r="G6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="O6" s="42"/>
+      <c r="E6" s="33"/>
+      <c r="G6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="O6" s="41"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="34"/>
-      <c r="G7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="O7" s="42"/>
+      <c r="E7" s="33"/>
+      <c r="G7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="33"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="G8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="O8" s="43"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="G8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="O8" s="42"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="O10" s="41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C11" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="O11" s="47"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="K12" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="M12" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="O12" s="41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="M13" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="O13" s="49" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="52"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="M9" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="O9" s="47" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="42" t="s">
+      <c r="C17" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="47"/>
+      <c r="C18" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="43" t="s">
+      <c r="C20" s="33"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="33"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="33"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="33"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="33"/>
+    </row>
+    <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="K10" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="M10" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="O10" s="42" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="K11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="O11" s="48"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="M12" s="49" t="s">
+      <c r="C25" s="35"/>
+    </row>
+    <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="O12" s="42" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="M13" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="O13" s="50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="53"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="48"/>
-      <c r="C18" s="34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="34"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="34"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="34"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="34"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="34"/>
-    </row>
-    <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="36"/>
-    </row>
-    <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="50" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="39"/>
+      <c r="B27" s="38"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:BC2 A1:I2 A3:BC16 A17:A324 C17:BC324 B17:B325">
